--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05617312175079248</v>
+        <v>0.08692415871688995</v>
       </c>
       <c r="C2">
-        <v>0.5070408727486975</v>
+        <v>0.4489496882726305</v>
       </c>
       <c r="D2">
-        <v>0.4179572714012312</v>
+        <v>0.3262969795491077</v>
       </c>
       <c r="E2">
-        <v>0.6464961495641186</v>
+        <v>0.5712241062394932</v>
       </c>
       <c r="F2">
-        <v>0.6526964935199967</v>
+        <v>0.577260257759593</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03994666574572983</v>
+        <v>-0.002553697066920395</v>
       </c>
       <c r="C3">
-        <v>0.5082308115362423</v>
+        <v>0.5658358590261171</v>
       </c>
       <c r="D3">
-        <v>0.4224309420443384</v>
+        <v>0.5376784437804385</v>
       </c>
       <c r="E3">
-        <v>0.6499468763247797</v>
+        <v>0.7332656024800553</v>
       </c>
       <c r="F3">
-        <v>0.6576663840974449</v>
+        <v>0.7505167201924804</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03471226477044539</v>
+        <v>0.0651984737114082</v>
       </c>
       <c r="C4">
-        <v>0.4823413631220226</v>
+        <v>0.3928637431660651</v>
       </c>
       <c r="D4">
-        <v>0.395910536089097</v>
+        <v>0.2463207646819407</v>
       </c>
       <c r="E4">
-        <v>0.6292142211434012</v>
+        <v>0.4963071273737067</v>
       </c>
       <c r="F4">
-        <v>0.6371678722841689</v>
+        <v>0.5041561463406211</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.00393814514444427</v>
+        <v>0.08449645211527543</v>
       </c>
       <c r="C5">
-        <v>0.4524397947822018</v>
+        <v>0.5227040812392598</v>
       </c>
       <c r="D5">
-        <v>0.3115489368354592</v>
+        <v>0.4080452692200807</v>
       </c>
       <c r="E5">
-        <v>0.5581656894108229</v>
+        <v>0.638784211780536</v>
       </c>
       <c r="F5">
-        <v>0.5663004288592506</v>
+        <v>0.6496198230706389</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0003233209026545878</v>
+        <v>0.008651778582802071</v>
       </c>
       <c r="C6">
-        <v>0.4416304249081809</v>
+        <v>0.3534920523821091</v>
       </c>
       <c r="D6">
-        <v>0.3077963994922446</v>
+        <v>0.1987829789312101</v>
       </c>
       <c r="E6">
-        <v>0.5547940153716914</v>
+        <v>0.4458508483015482</v>
       </c>
       <c r="F6">
-        <v>0.5631371550599781</v>
+        <v>0.4579819493964025</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.003395718706414937</v>
+        <v>0.1021562244677468</v>
       </c>
       <c r="C7">
-        <v>0.4210406536980844</v>
+        <v>0.5059495565191923</v>
       </c>
       <c r="D7">
-        <v>0.2752946617475466</v>
+        <v>0.3884286911590425</v>
       </c>
       <c r="E7">
-        <v>0.5246852978191276</v>
+        <v>0.6232404761879979</v>
       </c>
       <c r="F7">
-        <v>0.5328092798373789</v>
+        <v>0.6326354932905994</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01405074609203296</v>
+        <v>-0.01064431491224962</v>
       </c>
       <c r="C8">
-        <v>0.4387568700667307</v>
+        <v>0.3832088633390937</v>
       </c>
       <c r="D8">
-        <v>0.2655708085980149</v>
+        <v>0.1943466901180776</v>
       </c>
       <c r="E8">
-        <v>0.5153356271382902</v>
+        <v>0.4408476949220418</v>
       </c>
       <c r="F8">
-        <v>0.523386871167717</v>
+        <v>0.4542829244760465</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
